--- a/08_Protect_Mode/11 调用门(无参) 门描述符.xlsx
+++ b/08_Protect_Mode/11 调用门(无参) 门描述符.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383A97A5-2009-499A-86D3-064B755178D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C3F21B-7646-470C-9DE3-E78E18FF8FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <r>
       <t>指令格式：</t>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（6、段选择子、选择一个有效段描述符，以gdt中第二个为例：0x1b(RPL=3，不提权)，0x8(RPL=0,提权)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结果:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,56 +435,6 @@
         <family val="3"/>
       </rPr>
       <t>];</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    *(DWORD*)&amp;buffer[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0x12345678</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> // 这个地址随便填</t>
     </r>
   </si>
   <si>
@@ -766,6 +712,700 @@
   </si>
   <si>
     <t>4、测试内核权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    *(DWORD*)&amp;buffer[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0x12345678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> // eip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>废弃，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>这个地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>cpu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>随便填</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 要跳转的函数</t>
+  </si>
+  <si>
+    <t>        //nop</t>
+  </si>
+  <si>
+    <t>        // int 3  // 内核断点，会断在windbg中</t>
+  </si>
+  <si>
+    <t>        pushad;</t>
+  </si>
+  <si>
+    <t>        pushfd;</t>
+  </si>
+  <si>
+    <t>        mov ebx,[eax];</t>
+  </si>
+  <si>
+    <t>        popfd;</t>
+  </si>
+  <si>
+    <t>        popad;</t>
+  </si>
+  <si>
+    <t>        call fword ptr[buffer]</t>
+  </si>
+  <si>
+    <t>// GDT存储的数据: 0xff03 000f0380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    （1、写入构造的 门描述符时，尽量在开机第一次 断点时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    （2、不要以 调试方式运行此代码，否则无法到达 效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             直接 ctrl+F5 执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    //system("pause");</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;stdio.h&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;windows.h&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BYTE GDT[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DWORD dwSD[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]={</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        mov eax,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0x8003f008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">     // 高2G内存数据读取</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        mov dwSD[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],ebx;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        mov eax,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0x8003f00c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        mov dwSD[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],ebx;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        sgdt GDT;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">               // 读取GDTR数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        retf;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   // 长返回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> buffer[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]={</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    *(DWORD*)&amp;buffer[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0x12345678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> // 00401020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    *(DWORD*)&amp;buffer[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0x48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    printf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"dwSD(0x8003f008): %08x`%08x\n"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,dwSD[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],dwSD[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    printf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"gtdr: %x\ngdtl: %x\n"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        *(PDWORD)(&amp;GDT[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        *(PWORD)(&amp;GDT[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   （3、最后运行的结果中，gdtr的值 不是固定的，可能是antidebug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6、段选择子、选择一个DPL=0 代码段描述符，以gdt中第二个为例：0x1b(RPL=3，不提权)，0x8(RPL=0,提权)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +1413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,6 +1587,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -981,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -1016,6 +1675,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1211,6 +1885,85 @@
         <a:xfrm>
           <a:off x="144780" y="7612380"/>
           <a:ext cx="6888480" cy="2775955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A95F9B-9293-C4A6-6E97-F5513141F81A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="2377440"/>
+          <a:ext cx="3840480" cy="2408283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1545,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -1584,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F731BF15-419D-404B-9464-8B6F6FFC463D}">
   <dimension ref="B2:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1622,7 +2375,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -1632,145 +2385,165 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="19.8" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="P24" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -1780,7 +2553,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -1791,7 +2564,7 @@
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
       <c r="C60" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -1801,7 +2574,7 @@
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
       <c r="C61" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -1811,7 +2584,7 @@
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
       <c r="C62" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
@@ -1821,7 +2594,7 @@
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
       <c r="C63" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -1831,7 +2604,7 @@
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
       <c r="C64" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -1841,7 +2614,7 @@
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
       <c r="C65" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -1851,7 +2624,7 @@
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="15"/>
       <c r="C66" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -1860,7 +2633,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -1871,7 +2644,7 @@
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
       <c r="C68" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -1881,7 +2654,7 @@
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -1892,16 +2665,16 @@
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="G70" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1914,15 +2687,642 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EB4DB-AC0A-402F-9121-E84684A6693A}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L3" sqref="L3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="L2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="L3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="L4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="L5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="L6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/08_Protect_Mode/11 调用门(无参) 门描述符.xlsx
+++ b/08_Protect_Mode/11 调用门(无参) 门描述符.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C3F21B-7646-470C-9DE3-E78E18FF8FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4900C4DB-E177-4889-95E1-C6F69F79AC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <r>
       <t>指令格式：</t>
@@ -869,18 +869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    （1、写入构造的 门描述符时，尽量在开机第一次 断点时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    （2、不要以 调试方式运行此代码，否则无法到达 效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">             直接 ctrl+F5 执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>    //system("pause");</t>
   </si>
   <si>
@@ -1407,13 +1395,233 @@
   <si>
     <t>（6、段选择子、选择一个DPL=0 代码段描述符，以gdt中第二个为例：0x1b(RPL=3，不提权)，0x8(RPL=0,提权)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    （1、xp 写入构造的 门描述符时，尽量在开机第一次 断点时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    （2、不要以 调试方式运行此代码，否则无法到达 效果，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">              长返回时，在 pop fs即可避免后面报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             直接 ctrl+F5 执行。fs被切换了，在进入调用门时，push fs，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、调用门总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     SS ESP CS  返回地址   新的CS的值由调用门决定  新的SS和ESP由TSS提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当通过门，权限不变的时候，只会PUSH两个值：CS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>新的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值由调用门决定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当通过门，权限改变的时候，会PUSH四个值：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过门调用时，要执行哪行代码有调用门决定，但使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RETF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回时，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>由堆栈中压人的值决定，这就是说，进门时只能按指定路线走，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>出门时可以翻墙</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>只要改变堆栈里面的值就可以想去哪去哪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可不可以再建个门出去呢?也就是用Call  当然可以了 前门进 后门出</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,6 +1814,43 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1640,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -1690,6 +1935,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1721,7 +1977,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>538261</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,9 +2524,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P10"/>
+  <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -2312,14 +2568,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L8" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L9" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L11" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L12" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L13" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L14" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L15" s="27" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2335,70 +2632,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F731BF15-419D-404B-9464-8B6F6FFC463D}">
-  <dimension ref="B2:P70"/>
+  <dimension ref="B2:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="P2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="P3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="P4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="P5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="P6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="P7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="19.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" ht="19.8" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>53</v>
       </c>
@@ -2689,15 +3063,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EB4DB-AC0A-402F-9121-E84684A6693A}">
   <dimension ref="B2:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="15"/>
@@ -2718,7 +3090,7 @@
     </row>
     <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="15"/>
@@ -2728,7 +3100,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="L3" s="22" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -2747,7 +3119,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="L4" s="22" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="14"/>
@@ -2758,7 +3130,7 @@
     </row>
     <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="15"/>
@@ -2768,7 +3140,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="L5" s="22" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="14"/>
@@ -2779,7 +3151,7 @@
     </row>
     <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="15"/>
@@ -2789,7 +3161,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="L6" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -2809,7 +3181,9 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="L7" s="14"/>
+      <c r="L7" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -2944,7 +3318,7 @@
     </row>
     <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="15"/>
@@ -2968,7 +3342,7 @@
     </row>
     <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="15"/>
@@ -2980,7 +3354,7 @@
     </row>
     <row r="20" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="15"/>
@@ -3004,7 +3378,7 @@
     </row>
     <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="15"/>
@@ -3016,7 +3390,7 @@
     </row>
     <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="15"/>
@@ -3062,7 +3436,7 @@
     </row>
     <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="15"/>
@@ -3132,7 +3506,7 @@
     </row>
     <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="15"/>
@@ -3154,7 +3528,7 @@
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="15"/>
@@ -3166,7 +3540,7 @@
     </row>
     <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="15"/>
@@ -3178,7 +3552,7 @@
     </row>
     <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="15"/>
@@ -3236,7 +3610,7 @@
     </row>
     <row r="42" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="15"/>
@@ -3248,7 +3622,7 @@
     </row>
     <row r="43" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="15"/>
@@ -3260,7 +3634,7 @@
     </row>
     <row r="44" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="15"/>
@@ -3274,7 +3648,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="15"/>
@@ -3323,6 +3697,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/08_Protect_Mode/11 调用门(无参) 门描述符.xlsx
+++ b/08_Protect_Mode/11 调用门(无参) 门描述符.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4900C4DB-E177-4889-95E1-C6F69F79AC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763F56AE-A997-4F54-9264-624A1AB27CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <r>
       <t>指令格式：</t>
@@ -370,20 +370,6 @@
   </si>
   <si>
     <r>
-      <t>        retf:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">   // 长返回</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>int</t>
     </r>
     <r>
@@ -435,56 +421,6 @@
         <family val="3"/>
       </rPr>
       <t>];</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    *(DWORD*)&amp;buffer[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0x48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       // 构造的调用门的选择子，RPL==0</t>
     </r>
   </si>
   <si>
@@ -1217,47 +1153,6 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> // 00401020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    *(DWORD*)&amp;buffer[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF098658"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0x48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
     </r>
   </si>
   <si>
@@ -1615,6 +1510,165 @@
       </rPr>
       <t>可不可以再建个门出去呢?也就是用Call  当然可以了 前门进 后门出</t>
     </r>
+  </si>
+  <si>
+    <t>/*push 3bh;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop fs;*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 弹窗警告 可尝试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>        retf;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>长返回</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    *(SHORT*)&amp;buffer[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0x48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    *(SHORT*)&amp;buffer[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0x48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">       // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>构造的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>调用门的选择子，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RPL==0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2109,13 +2163,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>108955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2526,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -2573,17 +2627,17 @@
         <v>7</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="L8" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="L9" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2591,32 +2645,32 @@
         <v>5</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L11" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="L12" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L13" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L14" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="L15" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2632,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F731BF15-419D-404B-9464-8B6F6FFC463D}">
-  <dimension ref="B2:V70"/>
+  <dimension ref="B2:V73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2645,7 +2699,7 @@
         <v>9</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
@@ -2659,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
@@ -2673,7 +2727,7 @@
         <v>10</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="14"/>
@@ -2687,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="14"/>
@@ -2701,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
@@ -2715,7 +2769,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
@@ -2726,7 +2780,7 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -2774,7 +2828,7 @@
     </row>
     <row r="16" spans="2:22" ht="19.8" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2799,7 +2853,7 @@
     </row>
     <row r="21" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2807,7 +2861,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.25">
@@ -2815,24 +2869,24 @@
         <v>20</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="P24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2842,12 +2896,12 @@
     </row>
     <row r="27" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2860,9 +2914,9 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="19.8" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -2886,80 +2940,71 @@
       </c>
     </row>
     <row r="32" spans="2:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+    <row r="36" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+    <row r="37" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+    <row r="41" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="B62" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
@@ -2968,7 +3013,7 @@
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
       <c r="C63" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -2978,7 +3023,7 @@
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
       <c r="C64" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -2988,7 +3033,7 @@
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
       <c r="C65" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -2998,7 +3043,7 @@
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="15"/>
       <c r="C66" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -3006,10 +3051,10 @@
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -3018,7 +3063,7 @@
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
       <c r="C68" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -3028,7 +3073,7 @@
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -3036,19 +3081,49 @@
       <c r="G69" s="15"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="15"/>
+      <c r="B70" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="C70" s="15"/>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="G73" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3063,13 +3138,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EB4DB-AC0A-402F-9121-E84684A6693A}">
   <dimension ref="B2:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="15"/>
@@ -3079,7 +3156,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="L2" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -3090,7 +3167,7 @@
     </row>
     <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="15"/>
@@ -3100,7 +3177,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="L3" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -3119,7 +3196,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="L4" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="14"/>
@@ -3130,7 +3207,7 @@
     </row>
     <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="15"/>
@@ -3140,7 +3217,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="L5" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="14"/>
@@ -3151,7 +3228,7 @@
     </row>
     <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="15"/>
@@ -3161,7 +3238,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="L6" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -3172,7 +3249,7 @@
     </row>
     <row r="7" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="15"/>
@@ -3182,7 +3259,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="L7" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -3250,7 +3327,7 @@
     </row>
     <row r="11" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="15"/>
@@ -3262,7 +3339,7 @@
     </row>
     <row r="12" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="15"/>
@@ -3284,7 +3361,7 @@
     </row>
     <row r="14" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="15"/>
@@ -3296,7 +3373,7 @@
     </row>
     <row r="15" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="15"/>
@@ -3318,7 +3395,7 @@
     </row>
     <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="15"/>
@@ -3330,7 +3407,7 @@
     </row>
     <row r="18" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="15"/>
@@ -3342,7 +3419,7 @@
     </row>
     <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="15"/>
@@ -3354,7 +3431,7 @@
     </row>
     <row r="20" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="15"/>
@@ -3366,7 +3443,7 @@
     </row>
     <row r="21" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="15"/>
@@ -3378,7 +3455,7 @@
     </row>
     <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="15"/>
@@ -3390,7 +3467,7 @@
     </row>
     <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="15"/>
@@ -3412,7 +3489,7 @@
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="15"/>
@@ -3424,7 +3501,7 @@
     </row>
     <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="15"/>
@@ -3436,7 +3513,7 @@
     </row>
     <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="15"/>
@@ -3482,7 +3559,7 @@
     </row>
     <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="15"/>
@@ -3506,7 +3583,7 @@
     </row>
     <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="15"/>
@@ -3528,7 +3605,7 @@
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="15"/>
@@ -3540,7 +3617,7 @@
     </row>
     <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="15"/>
@@ -3552,7 +3629,7 @@
     </row>
     <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="15"/>
@@ -3586,7 +3663,7 @@
     </row>
     <row r="40" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="15"/>
@@ -3610,7 +3687,7 @@
     </row>
     <row r="42" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="15"/>
@@ -3622,7 +3699,7 @@
     </row>
     <row r="43" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="15"/>
@@ -3634,13 +3711,13 @@
     </row>
     <row r="44" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -3648,7 +3725,7 @@
     </row>
     <row r="45" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="15"/>
@@ -3672,7 +3749,7 @@
     </row>
     <row r="47" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="15"/>
